--- a/HW1/results/v1/LogisticRegression/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/LogisticRegression/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\LogisticRegression\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8415D7-EBE2-4353-A7BA-25E6ADC884E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66A68DA-C1B3-4159-AF4D-49BCE8ECEE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="20" r:id="rId1"/>
@@ -18,12 +18,29 @@
     <sheet name="MagicTelescope (3)" sheetId="15" r:id="rId3"/>
     <sheet name="elevators (5)" sheetId="18" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="elevator chart" sheetId="6" r:id="rId6"/>
-    <sheet name="telescope chart" sheetId="7" r:id="rId7"/>
-    <sheet name="phishing chart" sheetId="8" r:id="rId8"/>
-    <sheet name="mozilla chart" sheetId="14" r:id="rId9"/>
+    <sheet name="boxplot" sheetId="22" r:id="rId6"/>
+    <sheet name="elevator chart" sheetId="6" r:id="rId7"/>
+    <sheet name="telescope chart" sheetId="7" r:id="rId8"/>
+    <sheet name="phishing chart" sheetId="8" r:id="rId9"/>
+    <sheet name="mozilla chart" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'MagicTelescope (3)'!$A$1:$U$51</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'mozilla4 (3)'!$A$1:$U$51</definedName>
     <definedName name="ExternalData_3" localSheetId="3" hidden="1">'elevators (5)'!$A$1:$U$51</definedName>
@@ -97,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="95">
   <si>
     <t>Column1</t>
   </si>
@@ -362,6 +379,27 @@
   <si>
     <t>{'model__C': 0.001339971723117972, 'model__l1_ratio': 0.10789142699330445}</t>
   </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>telescope</t>
+  </si>
+  <si>
+    <t>mozilla</t>
+  </si>
+  <si>
+    <t>elevators</t>
+  </si>
+  <si>
+    <t>MagicTelescope</t>
+  </si>
+  <si>
+    <t>mozilla4</t>
+  </si>
+  <si>
+    <t>PhishingWebsites</t>
+  </si>
 </sst>
 </file>
 
@@ -396,17 +434,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -466,6 +500,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -485,6 +522,82 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -895,7 +1008,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$P$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -910,7 +1023,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1267,7 +1380,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2822,7 +2935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$13:$P$14</c:f>
+              <c:f>Sheet1!$S$13:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2837,7 +2950,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3224,7 +3337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4779,7 +4892,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$21:$P$22</c:f>
+              <c:f>Sheet1!$S$21:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4794,7 +4907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5180,7 +5293,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5593,7 +5706,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$17:$P$18</c:f>
+              <c:f>Sheet1!$S$17:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5608,7 +5721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$T$9:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5907,6 +6020,101 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EECAE026-2782-469C-8FC8-9BE92D924B5E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>elevators</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D71DCC6C-5F52-43CA-B5C9-3C17B780E661}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>MagicTelescope</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{37A449FD-9309-4381-983D-227D4CD1C41A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>mozilla4</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8C73DF50-AB93-4971-8F38-C6F71F7DAB7D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>PhishingWebsites</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6067,8 +6275,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6079,7 +6327,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6102,7 +6350,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6125,7 +6373,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6133,11 +6381,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6162,14 +6410,16 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6180,11 +6430,16 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6201,7 +6456,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6216,10 +6471,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6232,7 +6485,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -6242,13 +6495,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6267,18 +6520,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6349,12 +6600,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6386,8 +6631,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6442,7 +6687,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6470,7 +6715,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6480,12 +6736,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6501,7 +6754,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6517,7 +6770,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6531,7 +6784,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6564,7 +6817,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6573,12 +6826,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8131,7 +8378,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{320FA6BE-FA95-4CEE-8184-26A3A05FE419}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2920DEEF-4721-476A-B5CF-CD5249DD2B9B}">
   <sheetPr/>
   <sheetViews>
@@ -8142,7 +8916,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{65802B8A-B8BC-4D5A-9DC7-D1ACCFFB5065}">
   <sheetPr/>
   <sheetViews>
@@ -8153,7 +8927,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A823BD7F-7B3D-490E-8599-AC852B951D66}">
   <sheetPr/>
   <sheetViews>
@@ -8164,11 +8938,11 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8176,6 +8950,117 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4B3A3E-6E3C-D57A-9E5D-6D3405B5C8C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452F0FAF-31FF-B3CC-721C-69308A5AD902}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657167" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8208,7 +9093,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8241,7 +9126,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8274,7 +9159,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8438,7 +9323,7 @@
     <tableColumn id="5" xr3:uid="{FC962F0D-B701-4DA9-9CBC-42A59F0681E1}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{20662614-1ECD-4BAA-844D-CE89770034D0}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D5AF6A91-0BAC-4491-A7C1-51D25FD7587D}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{36AA8119-C38B-43BF-A119-3A3EF5798CDF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{36AA8119-C38B-43BF-A119-3A3EF5798CDF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{B14E2BF4-F0C7-4D50-9932-8818488E2EAE}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{00B52752-AA94-4559-8E9E-86927C8B29BA}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{DE433DDD-EDED-40D9-BA13-C5F9352093DD}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -8528,7 +9413,7 @@
     <tableColumn id="5" xr3:uid="{55E22F19-30C9-4930-A567-2F4E3C09E046}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{7D760460-8EE8-47E2-A66F-8F95C99EC4F8}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{AECFD3E0-A9B3-4549-A682-1AE17EF9C61D}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{DE1FDE43-9EB4-43E9-B0D0-949F1812E6CF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{DE1FDE43-9EB4-43E9-B0D0-949F1812E6CF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{BB852772-AD87-4BB3-A0BE-1EE37E200925}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{CAB2162F-A55F-4EB6-980B-E305E30BD505}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{38361E23-9F6D-4A1D-BC87-F466BEBC5AD5}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -8951,7 +9836,7 @@
       <c r="G2">
         <v>0.95071430640991617</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
       <c r="I2">
@@ -9016,7 +9901,7 @@
       <c r="G3">
         <v>0.5986584841970366</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3">
@@ -9081,7 +9966,7 @@
       <c r="G4">
         <v>0.15599452033620265</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
       <c r="I4">
@@ -9146,7 +10031,7 @@
       <c r="G5">
         <v>0.86617614577493518</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>41</v>
       </c>
       <c r="I5">
@@ -9211,7 +10096,7 @@
       <c r="G6">
         <v>0.70807257779604549</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
       <c r="I6">
@@ -9276,7 +10161,7 @@
       <c r="G7">
         <v>0.96990985216199432</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
       <c r="I7">
@@ -9341,7 +10226,7 @@
       <c r="G8">
         <v>0.21233911067827616</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>44</v>
       </c>
       <c r="I8">
@@ -9406,7 +10291,7 @@
       <c r="G9">
         <v>0.18340450985343382</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>45</v>
       </c>
       <c r="I9">
@@ -9471,7 +10356,7 @@
       <c r="G10">
         <v>0.52475643163223784</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10">
@@ -9536,7 +10421,7 @@
       <c r="G11">
         <v>0.29122914019804191</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>47</v>
       </c>
       <c r="I11">
@@ -9601,7 +10486,7 @@
       <c r="G12">
         <v>0.13949386065204183</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>48</v>
       </c>
       <c r="I12">
@@ -9666,7 +10551,7 @@
       <c r="G13">
         <v>0.3663618432936917</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>49</v>
       </c>
       <c r="I13">
@@ -9731,7 +10616,7 @@
       <c r="G14">
         <v>0.7851759613930136</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>50</v>
       </c>
       <c r="I14">
@@ -9796,7 +10681,7 @@
       <c r="G15">
         <v>0.51423443841361161</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>51</v>
       </c>
       <c r="I15">
@@ -9861,7 +10746,7 @@
       <c r="G16">
         <v>4.6450412719997725E-2</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>52</v>
       </c>
       <c r="I16">
@@ -9926,7 +10811,7 @@
       <c r="G17">
         <v>0.17052412368729153</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>53</v>
       </c>
       <c r="I17">
@@ -9991,7 +10876,7 @@
       <c r="G18">
         <v>0.94888553725333324</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>54</v>
       </c>
       <c r="I18">
@@ -10056,7 +10941,7 @@
       <c r="G19">
         <v>0.80839734811646113</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>55</v>
       </c>
       <c r="I19">
@@ -10121,7 +11006,7 @@
       <c r="G20">
         <v>9.767211400638387E-2</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>56</v>
       </c>
       <c r="I20">
@@ -10186,7 +11071,7 @@
       <c r="G21">
         <v>0.4401524937396013</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="I21">
@@ -10251,7 +11136,7 @@
       <c r="G22">
         <v>0.49517691011127019</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>58</v>
       </c>
       <c r="I22">
@@ -10316,7 +11201,7 @@
       <c r="G23">
         <v>0.90932040207878206</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>59</v>
       </c>
       <c r="I23">
@@ -10381,7 +11266,7 @@
       <c r="G24">
         <v>0.66252228435398197</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>60</v>
       </c>
       <c r="I24">
@@ -10446,7 +11331,7 @@
       <c r="G25">
         <v>0.52006802117781081</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>61</v>
       </c>
       <c r="I25">
@@ -10511,7 +11396,7 @@
       <c r="G26">
         <v>0.18485445552552704</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>62</v>
       </c>
       <c r="I26">
@@ -10576,7 +11461,7 @@
       <c r="G27">
         <v>0.77513282336111455</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>63</v>
       </c>
       <c r="I27">
@@ -10641,7 +11526,7 @@
       <c r="G28">
         <v>0.89482735042764883</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>64</v>
       </c>
       <c r="I28">
@@ -10706,7 +11591,7 @@
       <c r="G29">
         <v>0.92187423502311683</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>65</v>
       </c>
       <c r="I29">
@@ -10771,7 +11656,7 @@
       <c r="G30">
         <v>0.1959828624191452</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>66</v>
       </c>
       <c r="I30">
@@ -10836,7 +11721,7 @@
       <c r="G31">
         <v>0.32533033076326434</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>67</v>
       </c>
       <c r="I31">
@@ -10901,7 +11786,7 @@
       <c r="G32">
         <v>0.27134903177389591</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>68</v>
       </c>
       <c r="I32">
@@ -10966,7 +11851,7 @@
       <c r="G33">
         <v>0.35675332669358928</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>69</v>
       </c>
       <c r="I33">
@@ -11031,7 +11916,7 @@
       <c r="G34">
         <v>0.54269608315824847</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>70</v>
       </c>
       <c r="I34">
@@ -11096,7 +11981,7 @@
       <c r="G35">
         <v>0.80219698075403967</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>71</v>
       </c>
       <c r="I35">
@@ -11161,7 +12046,7 @@
       <c r="G36">
         <v>0.98688693660051729</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>72</v>
       </c>
       <c r="I36">
@@ -11226,7 +12111,7 @@
       <c r="G37">
         <v>0.19871568153417241</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
         <v>73</v>
       </c>
       <c r="I37">
@@ -11291,7 +12176,7 @@
       <c r="G38">
         <v>0.81546142845483416</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>74</v>
       </c>
       <c r="I38">
@@ -11356,7 +12241,7 @@
       <c r="G39">
         <v>0.72900716804098731</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>75</v>
       </c>
       <c r="I39">
@@ -11421,7 +12306,7 @@
       <c r="G40">
         <v>7.4044651734090361E-2</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>76</v>
       </c>
       <c r="I40">
@@ -11486,7 +12371,7 @@
       <c r="G41">
         <v>0.11586905952512971</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
       <c r="I41">
@@ -11551,7 +12436,7 @@
       <c r="G42">
         <v>0.62329812682755792</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>78</v>
       </c>
       <c r="I42">
@@ -11616,7 +12501,7 @@
       <c r="G43">
         <v>6.3558350286023635E-2</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>79</v>
       </c>
       <c r="I43">
@@ -11681,7 +12566,7 @@
       <c r="G44">
         <v>0.32518332202674705</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>80</v>
       </c>
       <c r="I44">
@@ -11746,7 +12631,7 @@
       <c r="G45">
         <v>0.63755747135521312</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" t="s">
         <v>81</v>
       </c>
       <c r="I45">
@@ -11811,7 +12696,7 @@
       <c r="G46">
         <v>0.47221492516194929</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>82</v>
       </c>
       <c r="I46">
@@ -11876,7 +12761,7 @@
       <c r="G47">
         <v>0.713244787222995</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" t="s">
         <v>83</v>
       </c>
       <c r="I47">
@@ -11941,7 +12826,7 @@
       <c r="G48">
         <v>0.56127719756949623</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>84</v>
       </c>
       <c r="I48">
@@ -12006,7 +12891,7 @@
       <c r="G49">
         <v>0.49379559636439074</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>85</v>
       </c>
       <c r="I49">
@@ -12071,7 +12956,7 @@
       <c r="G50">
         <v>0.42754101835854963</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>86</v>
       </c>
       <c r="I50">
@@ -12136,7 +13021,7 @@
       <c r="G51">
         <v>0.10789142699330445</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" t="s">
         <v>87</v>
       </c>
       <c r="I51">
@@ -22224,10 +23109,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="H1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22239,10 +23124,14 @@
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -22276,8 +23165,32 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22321,15 +23234,47 @@
         <f>AVERAGE(C2:F2)</f>
         <v>0.90678168868885933</v>
       </c>
-      <c r="P2" t="s">
+      <c r="L2">
+        <f>U$2-C2</f>
+        <v>2.4340340631004098E-2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:O2" si="1">V$2-D2</f>
+        <v>1.898729518566844E-3</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="1"/>
+        <v>-2.2262740751486376E-3</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="1"/>
+        <v>6.6362816116427581E-4</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <f>MAX(K:K)</f>
         <v>0.91295079474775598</v>
       </c>
+      <c r="U2">
+        <f>C33</f>
+        <v>0.94297483571151197</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:X2" si="2">D33</f>
+        <v>0.83925569089647456</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="2"/>
+        <v>0.88386292007525635</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="2"/>
+        <v>0.98570973230778081</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22358,30 +23303,46 @@
         <v>0.94270089904599241</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J18" si="1">MAX(D3,H2)</f>
+        <f t="shared" ref="H3:J18" si="3">MAX(D3,H2)</f>
         <v>0.83927120678272404</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88608919415040499</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9857160200303452</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K51" si="2">AVERAGE(C3:F3)</f>
+        <f t="shared" ref="K3:K51" si="4">AVERAGE(C3:F3)</f>
         <v>0.91293140975971787</v>
       </c>
-      <c r="P3" t="s">
+      <c r="L3">
+        <f t="shared" ref="L3:L51" si="5">U$2-C3</f>
+        <v>2.7393666551955853E-4</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="6">V$2-D3</f>
+        <v>-1.551588624948419E-5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N51" si="7">W$2-E3</f>
+        <v>-1.7459310455303356E-4</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O51" si="8">X$2-F3</f>
+        <v>-6.2877225643909185E-6</v>
+      </c>
+      <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3">
-        <f>A37</f>
-        <v>36</v>
+      <c r="T3">
+        <f>A33</f>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22406,27 +23367,43 @@
         <v>0.98065524110112567</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="3">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="9">MAX(C4,G3)</f>
         <v>0.94270089904599241</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.83927120678272404</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88608919415040499</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9857160200303452</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86319219664086311</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0.12958139830334259</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>2.1090720416648834E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>4.3307782500924707E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>5.0544912066551317E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22451,27 +23428,43 @@
         <v>0.93100864817983653</v>
       </c>
       <c r="G5">
+        <f t="shared" si="9"/>
+        <v>0.94270089904599241</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="3"/>
-        <v>0.94270089904599241</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
         <v>0.83927120678272404</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9857160200303452</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.83342595698808442</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0.21557131225217163</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>-6.2379631479928532E-3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>5.4701084127944277E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22496,27 +23489,43 @@
         <v>0.98572178496800267</v>
       </c>
       <c r="G6">
+        <f t="shared" si="9"/>
+        <v>0.94270089904599241</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="3"/>
-        <v>0.94270089904599241</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91237971779600935</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>3.0748999828725809E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>-4.266380543660464E-5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>-7.3587571022781795E-4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>-1.20526602218618E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22541,27 +23550,43 @@
         <v>0.93279117697223557</v>
       </c>
       <c r="G7">
+        <f t="shared" si="9"/>
+        <v>0.94270089904599241</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="3"/>
-        <v>0.94270089904599241</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77339710344940404</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.44297483571151197</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>8.2564563397873325E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>5.2918555335545236E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22586,33 +23611,49 @@
         <v>0.98570906835006178</v>
       </c>
       <c r="G8">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91294340617407754</v>
       </c>
-      <c r="P8" t="s">
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>5.2708584043825724E-5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>4.1242363628679612E-6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>-2.7942483412646268E-5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>6.6395771902705292E-7</v>
+      </c>
+      <c r="S8" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22637,34 +23678,50 @@
         <v>0.98142265902058379</v>
       </c>
       <c r="G9">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86769108825481822</v>
       </c>
-      <c r="P9">
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.12491790702989625</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>2.0224411762614358E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>3.1609433892042849E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>4.2870732871970185E-3</v>
+      </c>
+      <c r="S9">
         <f>A42</f>
         <v>41</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -22689,34 +23746,50 @@
         <v>0.98409172441215031</v>
       </c>
       <c r="G10">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.88622491102326562</v>
       </c>
-      <c r="P10">
-        <f>P9</f>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>9.2433768061403354E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>9.1262786332770851E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>3.7254803076502974E-3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>1.6180078956304911E-3</v>
+      </c>
+      <c r="S10">
+        <f>S9</f>
         <v>41</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -22741,27 +23814,43 @@
         <v>0.9855133598852307</v>
       </c>
       <c r="G11">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89889057200453626</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>5.3756923915029065E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>1.8510716799106097E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>4.3652295538842978E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>1.9637242255010623E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -22786,33 +23875,49 @@
         <v>0.98566591860378083</v>
       </c>
       <c r="G12">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91066763351519775</v>
       </c>
-      <c r="P12" t="s">
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>1.0199711173497605E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>-3.3771872701926497E-5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>-1.0771080745630712E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>4.3813703999973086E-5</v>
+      </c>
+      <c r="S12" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -22837,34 +23942,50 @@
         <v>0.98396584413773314</v>
       </c>
       <c r="G13">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8843070304900662</v>
       </c>
-      <c r="P13">
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>9.6732120879891248E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>1.0737217136939758E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>5.3618308438800888E-3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>1.7438881700476694E-3</v>
+      </c>
+      <c r="S13">
         <f>A6</f>
         <v>5</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22889,34 +24010,50 @@
         <v>0.98571700622237779</v>
       </c>
       <c r="G14">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90812130464980978</v>
       </c>
-      <c r="P14">
-        <f>P13</f>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>2.0305814871248051E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>5.2023948828039401E-4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>-1.5008200531468896E-3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>-7.2739145969835661E-6</v>
+      </c>
+      <c r="S14">
+        <f>S13</f>
         <v>5</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22941,27 +24078,43 @@
         <v>0.9806405157384287</v>
       </c>
       <c r="G15">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.87381914043997411</v>
       </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0.12562415302884111</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>1.9559602151842714E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>6.2736454810914388E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>5.0692165693521085E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22986,33 +24139,49 @@
         <v>0.98566027716754689</v>
       </c>
       <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90953495675808549</v>
       </c>
-      <c r="P16" t="s">
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>1.471183581024571E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>1.1344788472866796E-5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>-1.1092837802705313E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>4.9455140233911621E-5</v>
+      </c>
+      <c r="S16" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="T16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23037,34 +24206,50 @@
         <v>0.98566956319626242</v>
       </c>
       <c r="G17">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89010088322324921</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91061920179497369</v>
       </c>
-      <c r="P17">
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>1.0396711404572323E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>-2.7588301793723957E-5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>-1.0829204031683748E-3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>4.0169111518384426E-5</v>
+      </c>
+      <c r="S17">
         <f>A23</f>
         <v>22</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23089,34 +24274,50 @@
         <v>0.93100864817983653</v>
       </c>
       <c r="G18">
+        <f t="shared" si="9"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89382023842829272</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98572178496800267</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.83435579578934527</v>
       </c>
-      <c r="P18">
-        <f>P17</f>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0.21557131225217163</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>-9.9573183530363707E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>5.4701084127944277E-2</v>
+      </c>
+      <c r="S18">
+        <f>S17</f>
         <v>22</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23141,27 +24342,43 @@
         <v>0.9857064229263669</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H51" si="4">MAX(D19,H18)</f>
+        <f t="shared" ref="H19:H51" si="10">MAX(D19,H18)</f>
         <v>0.83929835470191116</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I51" si="5">MAX(E19,I18)</f>
+        <f t="shared" ref="I19:I51" si="11">MAX(E19,I18)</f>
         <v>0.89382023842829272</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J51" si="6">MAX(F19,J18)</f>
+        <f t="shared" ref="J19:J51" si="12">MAX(F19,J18)</f>
         <v>0.98572178496800267</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91291097533163656</v>
       </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>-5.5807414094388719E-6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>7.0326808386811379E-6</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>1.5451634363394806E-4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>3.309381413907353E-6</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23186,33 +24403,49 @@
         <v>0.98445404987901564</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H20">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="11"/>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I20">
+        <v>0.88384105653686917</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="5"/>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J20">
+        <v>9.8231553479304012E-2</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0.88384105653686917</v>
-      </c>
-      <c r="P20" t="s">
+        <v>9.8510090318990606E-3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>7.1007079035787513E-3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
+        <v>1.2556824287651702E-3</v>
+      </c>
+      <c r="S20" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="T20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23237,34 +24470,50 @@
         <v>0.98569645785629345</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H21">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I21">
+        <v>0.91265180493386655</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="5"/>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J21">
+        <v>1.7058347603509105E-3</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.91265180493386655</v>
-      </c>
-      <c r="P21">
+        <v>-3.7452984368857578E-5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>-4.8569697191214178E-4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
+        <v>1.3274451487355066E-5</v>
+      </c>
+      <c r="S21">
         <f>A29</f>
         <v>28</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23289,34 +24538,50 @@
         <v>0.97613461853470918</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H22">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="11"/>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I22">
+        <v>0.86052138542915224</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="5"/>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J22">
+        <v>0.15177028348508403</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>0.86052138542915224</v>
-      </c>
-      <c r="P22">
-        <f>P21</f>
+        <v>2.6491562371896427E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>2.1880677644362745E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>9.5751137730716307E-3</v>
+      </c>
+      <c r="S22">
+        <f>S21</f>
         <v>28</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23341,27 +24606,43 @@
         <v>0.93068759292846759</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H23">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I23">
+        <v>0.78351921082052123</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J23">
+        <v>0.44297483571151197</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>0.78351921082052123</v>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>-3.4335557188449606E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>5.5022139379313217E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23386,27 +24667,43 @@
         <v>0.98241878279311634</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H24">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I24">
+        <v>0.88256305943068414</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J24">
+        <v>0.10015505287418824</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>0.88256305943068414</v>
+        <v>1.5073511318574373E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>3.031427560860056E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>3.2909495146644652E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23431,27 +24728,43 @@
         <v>0.98425173581153425</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H25">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I25">
+        <v>0.88695827345631262</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J25">
+        <v>9.06386365446743E-2</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>0.88695827345631262</v>
+        <v>8.3486987661733902E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>3.524753358679189E-3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>1.4579964962465608E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -23476,27 +24789,43 @@
         <v>0.98567481312548111</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298041645292141</v>
       </c>
       <c r="H26">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I26">
+        <v>0.90776002521045296</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J26">
+        <v>2.1617998410681016E-2</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>0.90776002521045296</v>
+        <v>1.8741764790108917E-4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>-1.0772570916698365E-3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>3.4919182299697482E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -23521,27 +24850,43 @@
         <v>0.9857064229263669</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H27">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I27">
+        <v>0.91291180283614393</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J27">
+        <v>-1.0847091561849709E-5</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>0.91291180283614393</v>
+        <v>8.6095043166922736E-6</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>1.5489585227923541E-4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
+        <v>3.309381413907353E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -23566,27 +24911,43 @@
         <v>0.98570841141198495</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H28">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="12"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I28">
+        <v>0.91290836820548837</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J28">
+        <v>-2.0134387254122643E-6</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="6"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>0.91290836820548837</v>
+        <v>5.9414428917881068E-6</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>1.644572691080759E-4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>1.3208957958532608E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -23611,27 +24972,43 @@
         <v>0.98574865999021988</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H29">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I29">
+        <v>0.91294753777197024</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J29">
+        <v>4.5464787032845067E-4</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>0.91294753777197024</v>
+        <v>-3.9052824777119355E-5</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>-3.636394599694226E-4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>-3.8927682439071631E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23656,27 +25033,43 @@
         <v>0.97736121630715311</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H30">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I30">
+        <v>0.85279158840011782</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J30">
+        <v>0.14507969867306392</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
-        <v>0.85279158840011782</v>
+        <v>2.5705955473157016E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>6.1502655243703797E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>8.3485160006276926E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -23701,27 +25094,43 @@
         <v>0.97305255032505378</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H31">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I31">
+        <v>0.84688058735809246</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J31">
+        <v>0.15597168382348703</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0.84688058735809246</v>
+        <v>3.7613132803756555E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>5.8038830948683673E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>1.2657181982727028E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -23746,27 +25155,43 @@
         <v>0.98529539035571434</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H32">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I32">
+        <v>0.89392726474996553</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J32">
+        <v>7.0033165578607504E-2</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
-        <v>0.89392726474996553</v>
+        <v>3.6035543739880715E-3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>2.0430580864994052E-3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>4.1434195206646596E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -23791,27 +25216,43 @@
         <v>0.98570973230778081</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H33">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J33">
+        <v>0.91295079474775598</v>
+      </c>
+      <c r="L33">
+        <f>U$2-C33</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>0.91295079474775598</v>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -23836,27 +25277,43 @@
         <v>0.98345186198134726</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H34">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I34">
+        <v>0.88435068870708378</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J34">
+        <v>9.6176784315641917E-2</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>0.88435068870708378</v>
+        <v>1.1850980717202475E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>4.1147888034105407E-3</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>2.257870326433542E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -23881,27 +25338,43 @@
         <v>0.97494112405820954</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H35">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I35">
+        <v>0.86532392029973448</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J35">
+        <v>0.15575226645769502</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>0.86532392029973448</v>
+        <v>2.3204525922676855E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>7.8209716214250324E-4</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>1.0768608249571265E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -23926,27 +25399,43 @@
         <v>0.93100864817983653</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H36">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I36">
+        <v>0.83438473795148682</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J36">
+        <v>0.21557131225217163</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>0.83438473795148682</v>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>-1.0073087001602476E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>5.4701084127944277E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -23971,27 +25460,43 @@
         <v>0.98570740671737767</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H37">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I37">
+        <v>0.91289108634936866</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J37">
+        <v>4.5415151771666107E-4</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>0.91289108634936866</v>
+        <v>-1.2479231714879191E-5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>-2.0516428285588528E-4</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>2.3255904031405095E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -24016,27 +25521,43 @@
         <v>0.93279117697223557</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H38">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I38">
+        <v>0.77339710344940404</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J38">
+        <v>0.44297483571151197</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>0.77339710344940404</v>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>8.2564563397873325E-3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>5.2918555335545236E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24061,27 +25582,43 @@
         <v>0.98571271229808455</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H39">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I39">
+        <v>0.91294407804918076</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J39">
+        <v>2.2361033673734543E-4</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
-        <v>0.91294407804918076</v>
+        <v>-2.2916163074371276E-5</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>-1.7084738905848162E-4</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>-2.9799903037419639E-6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24106,27 +25643,43 @@
         <v>0.98570077474810369</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H40">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I40">
+        <v>0.91285610490587232</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J40">
+        <v>6.3197536508430296E-4</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
-        <v>0.91285610490587232</v>
+        <v>-1.3325599556135437E-5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>-2.4884795767088352E-4</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>8.9575596771140908E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24151,27 +25704,43 @@
         <v>0.98505745282492829</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H41">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I41">
+        <v>0.88927657150000283</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J41">
+        <v>8.3864960644458031E-2</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>0.88927657150000283</v>
+        <v>5.8241606145812419E-3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>4.3554922491204628E-3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>6.5227948285251358E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24196,27 +25765,43 @@
         <v>0.98571072741152066</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H42">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I42">
+        <v>0.91293283410893822</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J42">
+        <v>-3.4421986913280023E-5</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>0.91293283410893822</v>
+        <v>-1.6618706411009043E-10</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>1.0725981211134883E-4</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>-9.9510373985367551E-7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24241,27 +25826,43 @@
         <v>0.98481406047001696</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H43">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I43">
+        <v>0.88614607389487687</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J43">
+        <v>9.2435893316641815E-2</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0.88614607389487687</v>
+        <v>7.8471085396398799E-3</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>6.040209717470657E-3</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>8.9567183776384507E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -24286,27 +25887,43 @@
         <v>0.98438969614888783</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H44">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I44">
+        <v>0.88571883487263747</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J44">
+        <v>9.3651368770703236E-2</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>0.88571883487263747</v>
+        <v>8.8931211424160272E-3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>5.0633134284621129E-3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>1.3200361588929788E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24331,27 +25948,43 @@
         <v>0.98571834157222571</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H45">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I45">
+        <v>0.91294020741075288</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J45">
+        <v>2.2531101548106669E-4</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>0.91294020741075288</v>
+        <v>-1.3819494448008562E-5</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>-1.6053290857576119E-4</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>-8.6092644449031752E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24376,27 +26009,43 @@
         <v>0.98571139083053827</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H46">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I46">
+        <v>0.91293408264515696</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J46">
+        <v>-3.2040473140648729E-5</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>0.91293408264515696</v>
+        <v>9.7042321955953526E-7</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
+        <v>9.957698307438978E-5</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>-1.6585227574639205E-6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24421,27 +26070,43 @@
         <v>0.97409772814654705</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H47">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I47">
+        <v>0.8625089735476561</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J47">
+        <v>0.15658827893099614</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0.8625089735476561</v>
+        <v>2.7630827747796904E-2</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>5.9361739603722707E-3</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>1.1612004161233758E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -24466,27 +26131,43 @@
         <v>0.98571271080426226</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H48">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I48">
+        <v>0.9129463509652509</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J48">
+        <v>1.2754260110536819E-4</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
-        <v>0.9129463509652509</v>
+        <v>-5.3320512631849226E-6</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>-1.0145692334107004E-4</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>-2.9784964814538739E-6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -24511,27 +26192,43 @@
         <v>0.98571171797761004</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H49">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I49">
+        <v>0.91294326797879743</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J49">
+        <v>1.3842795348995018E-4</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>0.91294326797879743</v>
+        <v>-3.755227785173787E-6</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>-1.0257998004137292E-4</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>-1.9856698292297636E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -24556,27 +26253,43 @@
         <v>0.98569517366159509</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H50">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I50">
+        <v>0.90799731915085413</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J50">
+        <v>2.0754209321515282E-2</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>0.90799731915085413</v>
+        <v>2.0887522632317967E-4</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>-1.1637408064166799E-3</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
+        <v>1.4558646185713897E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -24601,50 +26314,66 @@
         <v>0.97557890280031789</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.94300925769842525</v>
       </c>
       <c r="H51">
+        <f t="shared" si="10"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="11"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="12"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="4"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I51">
+        <v>0.84634870379173766</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="5"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J51">
+        <v>0.14854815496628615</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="6"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
-        <v>0.84634870379173766</v>
+        <v>2.9044032988870261E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>7.8685346361453745E-2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="8"/>
+        <v>1.0130829507462913E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$G$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$H$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$I$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$J$51</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>$Q$2</formula>
+  <conditionalFormatting sqref="K52:N1048576 K1 K2:O51">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW1/results/v1/LogisticRegression/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/LogisticRegression/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\LogisticRegression\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66A68DA-C1B3-4159-AF4D-49BCE8ECEE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE65703-69FC-4223-BAE8-F3F869D99362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="20" r:id="rId1"/>
@@ -27,20 +27,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'MagicTelescope (3)'!$A$1:$U$51</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'mozilla4 (3)'!$A$1:$U$51</definedName>
     <definedName name="ExternalData_3" localSheetId="3" hidden="1">'elevators (5)'!$A$1:$U$51</definedName>
@@ -114,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="100">
   <si>
     <t>Column1</t>
   </si>
@@ -400,6 +392,21 @@
   <si>
     <t>PhishingWebsites</t>
   </si>
+  <si>
+    <t>cummulative elevators</t>
+  </si>
+  <si>
+    <t>cummulative telescope</t>
+  </si>
+  <si>
+    <t>cummulative mozilla</t>
+  </si>
+  <si>
+    <t>cummulative phishing</t>
+  </si>
+  <si>
+    <t>cummulative</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +447,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1008,7 +1085,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$V$9:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1023,7 +1100,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2935,7 +3012,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$13:$S$14</c:f>
+              <c:f>Sheet1!$V$13:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2950,7 +3027,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4892,7 +4969,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$21:$S$22</c:f>
+              <c:f>Sheet1!$V$21:$V$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4907,7 +4984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5706,7 +5783,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$17:$S$18</c:f>
+              <c:f>Sheet1!$V$17:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5721,7 +5798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$9:$T$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -8898,7 +8975,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{320FA6BE-FA95-4CEE-8184-26A3A05FE419}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9019,7 +9096,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452F0FAF-31FF-B3CC-721C-69308A5AD902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0792915B-989A-795D-1497-2F9AF127934B}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9323,7 +9400,7 @@
     <tableColumn id="5" xr3:uid="{FC962F0D-B701-4DA9-9CBC-42A59F0681E1}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{20662614-1ECD-4BAA-844D-CE89770034D0}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D5AF6A91-0BAC-4491-A7C1-51D25FD7587D}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{36AA8119-C38B-43BF-A119-3A3EF5798CDF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{36AA8119-C38B-43BF-A119-3A3EF5798CDF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="15"/>
     <tableColumn id="9" xr3:uid="{B14E2BF4-F0C7-4D50-9932-8818488E2EAE}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{00B52752-AA94-4559-8E9E-86927C8B29BA}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{DE433DDD-EDED-40D9-BA13-C5F9352093DD}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -9353,7 +9430,7 @@
     <tableColumn id="5" xr3:uid="{58A05135-A419-4FFF-B881-9C50A745B1E5}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{9B9A8308-EEFD-4277-9EC6-DFD8C7C9195E}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{8B6CBABE-4388-4229-918B-9E465EFFBEFC}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{B98111C5-1E86-4C28-A456-7CED6FCCF7FD}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B98111C5-1E86-4C28-A456-7CED6FCCF7FD}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{D19B5DBB-5BB3-442B-BA9E-7A65989919C8}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{F5D49FDA-18F0-46DB-B380-80FF4AC8DF8E}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{9694D6D4-F8AC-4C59-9018-446E062D5509}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -9383,7 +9460,7 @@
     <tableColumn id="5" xr3:uid="{CD65B040-6426-4A17-A554-DE661BB8F3BE}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{275E0E6D-DA8C-4C37-882A-D3A922BF1DA2}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{3513815E-F80B-454C-8E90-779142C029FA}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{CDFDAAD8-4592-44A4-9E40-0F03B82F90D1}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{CDFDAAD8-4592-44A4-9E40-0F03B82F90D1}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="13"/>
     <tableColumn id="9" xr3:uid="{23244273-3C1F-4E95-AC16-C57F37DE89C4}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{5DB4DBD8-3877-4EEF-8470-08AFFB940B05}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{714F315F-C484-4BD2-99E6-770B5B42ADEC}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -9413,7 +9490,7 @@
     <tableColumn id="5" xr3:uid="{55E22F19-30C9-4930-A567-2F4E3C09E046}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{7D760460-8EE8-47E2-A66F-8F95C99EC4F8}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{AECFD3E0-A9B3-4549-A682-1AE17EF9C61D}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{DE1FDE43-9EB4-43E9-B0D0-949F1812E6CF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{DE1FDE43-9EB4-43E9-B0D0-949F1812E6CF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="12"/>
     <tableColumn id="9" xr3:uid="{BB852772-AD87-4BB3-A0BE-1EE37E200925}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{CAB2162F-A55F-4EB6-980B-E305E30BD505}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{38361E23-9F6D-4A1D-BC87-F466BEBC5AD5}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -23109,10 +23186,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O51"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23128,10 +23205,15 @@
     <col min="13" max="13" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.453125" customWidth="1"/>
+    <col min="16" max="16" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -23177,20 +23259,35 @@
       <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="U1" t="s">
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" t="s">
         <v>88</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>89</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23235,46 +23332,65 @@
         <v>0.90678168868885933</v>
       </c>
       <c r="L2">
-        <f>U$2-C2</f>
+        <f>X$2-C2</f>
         <v>2.4340340631004098E-2</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:O2" si="1">V$2-D2</f>
+        <f>Y$2-D2</f>
         <v>1.898729518566844E-3</v>
       </c>
       <c r="N2">
+        <f>Z$2-E2</f>
+        <v>-2.2262740751486376E-3</v>
+      </c>
+      <c r="O2">
+        <f>AA$2-F2</f>
+        <v>6.6362816116427581E-4</v>
+      </c>
+      <c r="P2">
+        <f>$W$2-C2</f>
+        <v>-5.6837003327518953E-3</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:S2" si="1">$W$2-D2</f>
+        <v>7.5593833369848262E-2</v>
+      </c>
+      <c r="R2">
         <f t="shared" si="1"/>
-        <v>-2.2262740751486376E-3</v>
-      </c>
-      <c r="O2">
+        <v>2.6861600597350987E-2</v>
+      </c>
+      <c r="S2">
         <f t="shared" si="1"/>
-        <v>6.6362816116427581E-4</v>
-      </c>
-      <c r="S2" t="s">
+        <v>-7.2095309398860552E-2</v>
+      </c>
+      <c r="T2">
+        <v>-5.6837003327518953E-3</v>
+      </c>
+      <c r="V2" t="s">
         <v>28</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <f>MAX(K:K)</f>
         <v>0.91295079474775598</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f>C33</f>
         <v>0.94297483571151197</v>
       </c>
-      <c r="V2">
-        <f t="shared" ref="V2:X2" si="2">D33</f>
+      <c r="Y2">
+        <f>D33</f>
         <v>0.83925569089647456</v>
       </c>
-      <c r="W2">
-        <f t="shared" si="2"/>
+      <c r="Z2">
+        <f>E33</f>
         <v>0.88386292007525635</v>
       </c>
-      <c r="X2">
-        <f t="shared" si="2"/>
+      <c r="AA2">
+        <f>F33</f>
         <v>0.98570973230778081</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23303,46 +23419,65 @@
         <v>0.94270089904599241</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J18" si="3">MAX(D3,H2)</f>
+        <f t="shared" ref="H3:J18" si="2">MAX(D3,H2)</f>
         <v>0.83927120678272404</v>
       </c>
       <c r="I3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.88608919415040499</v>
       </c>
       <c r="J3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9857160200303452</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K51" si="4">AVERAGE(C3:F3)</f>
+        <f t="shared" ref="K3:K51" si="3">AVERAGE(C3:F3)</f>
         <v>0.91293140975971787</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L51" si="5">U$2-C3</f>
+        <f t="shared" ref="L3:L51" si="4">X$2-C3</f>
         <v>2.7393666551955853E-4</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M51" si="6">V$2-D3</f>
+        <f t="shared" ref="M3:M51" si="5">Y$2-D3</f>
         <v>-1.551588624948419E-5</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N51" si="7">W$2-E3</f>
+        <f t="shared" ref="N3:N51" si="6">Z$2-E3</f>
         <v>-1.7459310455303356E-4</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O51" si="8">X$2-F3</f>
+        <f t="shared" ref="O3:O51" si="7">AA$2-F3</f>
         <v>-6.2877225643909185E-6</v>
       </c>
-      <c r="S3" t="s">
+      <c r="P3">
+        <f t="shared" ref="P3:P51" si="8">$W$2-C3</f>
+        <v>-2.9750104298236435E-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q51" si="9">$W$2-D3</f>
+        <v>7.3679587965031934E-2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R51" si="10">$W$2-E3</f>
+        <v>2.8913281567946592E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:T51" si="11">$W$2-F3</f>
+        <v>-7.2765225282589219E-2</v>
+      </c>
+      <c r="T3">
+        <v>-2.9750104298236435E-2</v>
+      </c>
+      <c r="V3" t="s">
         <v>30</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <f>A33</f>
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23367,43 +23502,62 @@
         <v>0.98065524110112567</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="9">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="12">MAX(C4,G3)</f>
         <v>0.94270089904599241</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.83927120678272404</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.88608919415040499</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.9857160200303452</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="3"/>
-        <v>0.83927120678272404</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>0.88608919415040499</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>0.9857160200303452</v>
-      </c>
-      <c r="K4">
+        <v>0.86319219664086311</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="4"/>
-        <v>0.86319219664086311</v>
-      </c>
-      <c r="L4">
+        <v>0.12958139830334259</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="5"/>
-        <v>0.12958139830334259</v>
-      </c>
-      <c r="M4">
+        <v>2.1090720416648834E-2</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="6"/>
-        <v>2.1090720416648834E-2</v>
-      </c>
-      <c r="N4">
+        <v>4.3307782500924707E-2</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="7"/>
-        <v>4.3307782500924707E-2</v>
-      </c>
-      <c r="O4">
+        <v>5.0544912066551317E-3</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="8"/>
-        <v>5.0544912066551317E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+        <v>9.9557357339586594E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="9"/>
+        <v>9.4785824267930252E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="10"/>
+        <v>7.2395657173424333E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="11"/>
+        <v>-6.7704446353369696E-2</v>
+      </c>
+      <c r="T4">
+        <v>9.9557357339586594E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23428,43 +23582,62 @@
         <v>0.93100864817983653</v>
       </c>
       <c r="G5">
+        <f t="shared" si="12"/>
+        <v>0.94270089904599241</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.83927120678272404</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.9857160200303452</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.83342595698808442</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.21557131225217163</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>-6.2379631479928532E-3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>5.4701084127944277E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>0.18554727128841564</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="9"/>
-        <v>0.94270089904599241</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0.83927120678272404</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0.9857160200303452</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>0.83342595698808442</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>0.21557131225217163</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>5.4064917806562862E-2</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="7"/>
-        <v>-6.2379631479928532E-3</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="8"/>
-        <v>5.4701084127944277E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0.12776002165784428</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="10"/>
+        <v>2.2849911524506772E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="11"/>
+        <v>-1.8057853432080551E-2</v>
+      </c>
+      <c r="T5">
+        <v>0.18554727128841564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23489,43 +23662,62 @@
         <v>0.98572178496800267</v>
       </c>
       <c r="G6">
+        <f t="shared" si="12"/>
+        <v>0.94270089904599241</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.91237971779600935</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>3.0748999828725809E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>-4.266380543660464E-5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>-7.3587571022781795E-4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>-1.20526602218618E-5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>-2.6949140980883413E-2</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="9"/>
-        <v>0.94270089904599241</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0.91237971779600935</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>3.0748999828725809E-3</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>-4.266380543660464E-5</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="7"/>
-        <v>-7.3587571022781795E-4</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="8"/>
-        <v>-1.20526602218618E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7.3652440045844814E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="10"/>
+        <v>2.8351998962271807E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="11"/>
+        <v>-7.277099022024669E-2</v>
+      </c>
+      <c r="T6">
+        <v>-2.6949140980883413E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23550,43 +23742,62 @@
         <v>0.93279117697223557</v>
       </c>
       <c r="G7">
+        <f t="shared" si="12"/>
+        <v>0.94270089904599241</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.77339710344940404</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.44297483571151197</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>8.2564563397873325E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>5.2918555335545236E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>0.41295079474775598</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="9"/>
-        <v>0.94270089904599241</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.77339710344940404</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>0.44297483571151197</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>5.4064917806562862E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="7"/>
-        <v>8.2564563397873325E-3</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="8"/>
-        <v>5.2918555335545236E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+        <v>0.12776002165784428</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>3.7344331012286958E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="11"/>
+        <v>-1.9840382224479591E-2</v>
+      </c>
+      <c r="T7">
+        <v>0.41295079474775598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23611,49 +23822,68 @@
         <v>0.98570906835006178</v>
       </c>
       <c r="G8">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.91294340617407754</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>5.2708584043825724E-5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>4.1242363628679612E-6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>-2.7942483412646268E-5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>6.6395771902705292E-7</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>-2.9971332379712168E-2</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.91294340617407754</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>5.2708584043825724E-5</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>4.1242363628679612E-6</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="7"/>
-        <v>-2.7942483412646268E-5</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="8"/>
-        <v>6.6395771902705292E-7</v>
-      </c>
-      <c r="S8" t="s">
+        <v>7.3699228087644286E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="10"/>
+        <v>2.9059932189086979E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="11"/>
+        <v>-7.2758273602305801E-2</v>
+      </c>
+      <c r="T8">
+        <v>-2.9971332379712168E-2</v>
+      </c>
+      <c r="V8" t="s">
         <v>31</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23678,50 +23908,69 @@
         <v>0.98142265902058379</v>
       </c>
       <c r="G9">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.86769108825481822</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.12491790702989625</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>2.0224411762614358E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>3.1609433892042849E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>4.2870732871970185E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>9.4893866066140253E-2</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.86769108825481822</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>0.12491790702989625</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
-        <v>2.0224411762614358E-2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="7"/>
-        <v>3.1609433892042849E-2</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="8"/>
-        <v>4.2870732871970185E-3</v>
+        <v>9.3919515613895777E-2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="10"/>
+        <v>6.0697308564542474E-2</v>
       </c>
       <c r="S9">
+        <f t="shared" si="11"/>
+        <v>-6.8471864272827809E-2</v>
+      </c>
+      <c r="T9">
+        <v>9.4893866066140253E-2</v>
+      </c>
+      <c r="V9">
         <f>A42</f>
         <v>41</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23746,50 +23995,69 @@
         <v>0.98409172441215031</v>
       </c>
       <c r="G10">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.88622491102326562</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>9.2433768061403354E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>9.1262786332770851E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>3.7254803076502974E-3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>1.6180078956304911E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>6.2409727097647361E-2</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.88622491102326562</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>9.2433768061403354E-2</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="6"/>
-        <v>9.1262786332770851E-3</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="7"/>
-        <v>3.7254803076502974E-3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="8"/>
-        <v>1.6180078956304911E-3</v>
+        <v>8.2821382484558503E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="10"/>
+        <v>3.2813354980149922E-2</v>
       </c>
       <c r="S10">
-        <f>S9</f>
+        <f t="shared" si="11"/>
+        <v>-7.1140929664394337E-2</v>
+      </c>
+      <c r="T10">
+        <v>6.2409727097647361E-2</v>
+      </c>
+      <c r="V10">
+        <f>V9</f>
         <v>41</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23814,43 +24082,62 @@
         <v>0.9855133598852307</v>
       </c>
       <c r="G11">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.89889057200453626</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>5.3756923915029065E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>1.8510716799106097E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>4.3652295538842978E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>1.9637242255010623E-4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>2.3732882951273071E-2</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0.89889057200453626</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>5.3756923915029065E-2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="6"/>
-        <v>1.8510716799106097E-3</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="7"/>
-        <v>4.3652295538842978E-4</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="8"/>
-        <v>1.9637242255010623E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+        <v>7.5546175531192028E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="10"/>
+        <v>2.9524397627888055E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="11"/>
+        <v>-7.2562565137474722E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.3732882951273071E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23875,49 +24162,68 @@
         <v>0.98566591860378083</v>
       </c>
       <c r="G12">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0.91066763351519775</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>1.0199711173497605E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>-3.3771872701926497E-5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>-1.0771080745630712E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>4.3813703999973086E-5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>-1.9824329790258388E-2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0.91066763351519775</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
-        <v>1.0199711173497605E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="6"/>
-        <v>-3.3771872701926497E-5</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="7"/>
-        <v>-1.0771080745630712E-3</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="8"/>
-        <v>4.3813703999973086E-5</v>
-      </c>
-      <c r="S12" t="s">
+        <v>7.3661331978579492E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>2.8010766597936554E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>-7.2715123856024855E-2</v>
+      </c>
+      <c r="T12">
+        <v>-1.9824329790258388E-2</v>
+      </c>
+      <c r="V12" t="s">
         <v>33</v>
       </c>
-      <c r="T12" t="s">
+      <c r="W12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23942,50 +24248,69 @@
         <v>0.98396584413773314</v>
       </c>
       <c r="G13">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.8843070304900662</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>9.6732120879891248E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>1.0737217136939758E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>5.3618308438800888E-3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>1.7438881700476694E-3</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>6.6708079916135254E-2</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>0.8843070304900662</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
-        <v>9.6732120879891248E-2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="6"/>
-        <v>1.0737217136939758E-2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="7"/>
-        <v>5.3618308438800888E-3</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="8"/>
-        <v>1.7438881700476694E-3</v>
+        <v>8.4432320988221177E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="10"/>
+        <v>3.4449705516379714E-2</v>
       </c>
       <c r="S13">
+        <f t="shared" si="11"/>
+        <v>-7.1015049389977158E-2</v>
+      </c>
+      <c r="T13">
+        <v>6.6708079916135254E-2</v>
+      </c>
+      <c r="V13">
         <f>A6</f>
         <v>5</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -24010,50 +24335,69 @@
         <v>0.98571700622237779</v>
       </c>
       <c r="G14">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0.90812130464980978</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>2.0305814871248051E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>5.2023948828039401E-4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>-1.5008200531468896E-3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>-7.2739145969835661E-6</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>-9.7182260925079422E-3</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.90812130464980978</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
-        <v>2.0305814871248051E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="6"/>
-        <v>5.2023948828039401E-4</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
-        <v>-1.5008200531468896E-3</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="8"/>
-        <v>-7.2739145969835661E-6</v>
+        <v>7.4215343339561812E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="10"/>
+        <v>2.7587054619352736E-2</v>
       </c>
       <c r="S14">
-        <f>S13</f>
+        <f t="shared" si="11"/>
+        <v>-7.2766211474621811E-2</v>
+      </c>
+      <c r="T14">
+        <v>-9.7182260925079422E-3</v>
+      </c>
+      <c r="V14">
+        <f>V13</f>
         <v>5</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24078,43 +24422,62 @@
         <v>0.9806405157384287</v>
       </c>
       <c r="G15">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.87381914043997411</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.12562415302884111</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1.9559602151842714E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>6.2736454810914388E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>5.0692165693521085E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>9.5600112065085119E-2</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>0.87381914043997411</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>0.12562415302884111</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="6"/>
-        <v>1.9559602151842714E-2</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="7"/>
-        <v>6.2736454810914388E-3</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="8"/>
-        <v>5.0692165693521085E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+        <v>9.3254706003124133E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>3.5361520153591064E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="11"/>
+        <v>-6.7689720990672719E-2</v>
+      </c>
+      <c r="T15">
+        <v>9.5600112065085119E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -24139,49 +24502,68 @@
         <v>0.98566027716754689</v>
       </c>
       <c r="G16">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0.90953495675808549</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>1.471183581024571E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>1.1344788472866796E-5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>-1.1092837802705313E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>4.9455140233911621E-5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>-1.5312205153510283E-2</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>0.90953495675808549</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>1.471183581024571E-2</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="6"/>
-        <v>1.1344788472866796E-5</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
-        <v>-1.1092837802705313E-3</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="8"/>
-        <v>4.9455140233911621E-5</v>
-      </c>
-      <c r="S16" t="s">
+        <v>7.3706448639754285E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>2.7978590892229094E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="11"/>
+        <v>-7.2709482419790916E-2</v>
+      </c>
+      <c r="T16">
+        <v>-1.5312205153510283E-2</v>
+      </c>
+      <c r="V16" t="s">
         <v>34</v>
       </c>
-      <c r="T16" t="s">
+      <c r="W16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24206,50 +24588,69 @@
         <v>0.98566956319626242</v>
       </c>
       <c r="G17">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.89010088322324921</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.91061920179497369</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>1.0396711404572323E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>-2.7588301793723957E-5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>-1.0829204031683748E-3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>4.0169111518384426E-5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>-1.9627329559183671E-2</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0.89010088322324921</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>0.91061920179497369</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>1.0396711404572323E-2</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="6"/>
-        <v>-2.7588301793723957E-5</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="7"/>
-        <v>-1.0829204031683748E-3</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="8"/>
-        <v>4.0169111518384426E-5</v>
+        <v>7.3667515549487694E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="10"/>
+        <v>2.800495426933125E-2</v>
       </c>
       <c r="S17">
+        <f t="shared" si="11"/>
+        <v>-7.2718768448506443E-2</v>
+      </c>
+      <c r="T17">
+        <v>-1.9627329559183671E-2</v>
+      </c>
+      <c r="V17">
         <f>A23</f>
         <v>22</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -24274,50 +24675,69 @@
         <v>0.93100864817983653</v>
       </c>
       <c r="G18">
+        <f t="shared" si="12"/>
+        <v>0.94292212712746815</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0.83435579578934527</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0.21557131225217163</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>-9.9573183530363707E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>5.4701084127944277E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>0.18554727128841564</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="9"/>
-        <v>0.94292212712746815</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>0.83435579578934527</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>0.21557131225217163</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="6"/>
-        <v>5.4064917806562862E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
-        <v>-9.9573183530363707E-3</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="8"/>
-        <v>5.4701084127944277E-2</v>
+        <v>0.12776002165784428</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>1.9130556319463254E-2</v>
       </c>
       <c r="S18">
-        <f>S17</f>
+        <f t="shared" si="11"/>
+        <v>-1.8057853432080551E-2</v>
+      </c>
+      <c r="T18">
+        <v>0.18554727128841564</v>
+      </c>
+      <c r="V18">
+        <f>V17</f>
         <v>22</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -24342,43 +24762,62 @@
         <v>0.9857064229263669</v>
       </c>
       <c r="G19">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H51" si="13">MAX(D19,H18)</f>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I51" si="14">MAX(E19,I18)</f>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J51" si="15">MAX(F19,J18)</f>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0.91291097533163656</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>-5.5807414094388719E-6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>7.0326808386811379E-6</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>1.5451634363394806E-4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>3.309381413907353E-6</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>-3.0029621705165432E-2</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H51" si="10">MAX(D19,H18)</f>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I51" si="11">MAX(E19,I18)</f>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J51" si="12">MAX(F19,J18)</f>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>0.91291097533163656</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>-5.5807414094388719E-6</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="6"/>
-        <v>7.0326808386811379E-6</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
-        <v>1.5451634363394806E-4</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="8"/>
-        <v>3.309381413907353E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+        <v>7.3702136532120099E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>2.9242391016133573E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>-7.275562817861092E-2</v>
+      </c>
+      <c r="T19">
+        <v>-3.0029621705165432E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -24403,49 +24842,68 @@
         <v>0.98445404987901564</v>
       </c>
       <c r="G20">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="14"/>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.88384105653686917</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>9.8231553479304012E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>9.8510090318990606E-3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>7.1007079035787513E-3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>1.2556824287651702E-3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>6.8207512515548019E-2</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H20">
+        <v>8.3546112883180479E-2</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I20">
+        <v>3.6188582576078376E-2</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="11"/>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>0.88384105653686917</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>9.8231553479304012E-2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="6"/>
-        <v>9.8510090318990606E-3</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
-        <v>7.1007079035787513E-3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="8"/>
-        <v>1.2556824287651702E-3</v>
-      </c>
-      <c r="S20" t="s">
+        <v>-7.1503255131259658E-2</v>
+      </c>
+      <c r="T20">
+        <v>6.8207512515548019E-2</v>
+      </c>
+      <c r="V20" t="s">
         <v>35</v>
       </c>
-      <c r="T20" t="s">
+      <c r="W20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -24470,50 +24928,69 @@
         <v>0.98569645785629345</v>
       </c>
       <c r="G21">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="14"/>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0.91265180493386655</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>1.7058347603509105E-3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>-3.7452984368857578E-5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>-4.8569697191214178E-4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>1.3274451487355066E-5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>-2.8318206203405083E-2</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H21">
+        <v>7.3657650866912561E-2</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I21">
+        <v>2.8602177700587483E-2</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="11"/>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>0.91265180493386655</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
-        <v>1.7058347603509105E-3</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="6"/>
-        <v>-3.7452984368857578E-5</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
-        <v>-4.8569697191214178E-4</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="8"/>
-        <v>1.3274451487355066E-5</v>
-      </c>
-      <c r="S21">
+        <v>-7.2745663108537473E-2</v>
+      </c>
+      <c r="T21">
+        <v>-2.8318206203405083E-2</v>
+      </c>
+      <c r="V21">
         <f>A29</f>
         <v>28</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -24538,50 +25015,69 @@
         <v>0.97613461853470918</v>
       </c>
       <c r="G22">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="14"/>
+        <v>0.89382023842829272</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0.86052138542915224</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.15177028348508403</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>2.6491562371896427E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>2.1880677644362745E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>9.5751137730716307E-3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>0.12174624252132804</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H22">
+        <v>0.10018666622317784</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I22">
+        <v>5.096855231686237E-2</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="11"/>
-        <v>0.89382023842829272</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>0.86052138542915224</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
-        <v>0.15177028348508403</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="6"/>
-        <v>2.6491562371896427E-2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
-        <v>2.1880677644362745E-2</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="8"/>
-        <v>9.5751137730716307E-3</v>
-      </c>
-      <c r="S22">
-        <f>S21</f>
+        <v>-6.3183823786953197E-2</v>
+      </c>
+      <c r="T22">
+        <v>0.12174624252132804</v>
+      </c>
+      <c r="V22">
+        <f>V21</f>
         <v>28</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -24606,43 +25102,62 @@
         <v>0.93068759292846759</v>
       </c>
       <c r="G23">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.78351921082052123</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0.44297483571151197</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>-3.4335557188449606E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>5.5022139379313217E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>0.41295079474775598</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H23">
+        <v>0.12776002165784428</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I23">
+        <v>-5.2476825159499807E-3</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>0.78351921082052123</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
-        <v>0.44297483571151197</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="6"/>
-        <v>5.4064917806562862E-2</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="7"/>
-        <v>-3.4335557188449606E-2</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="8"/>
-        <v>5.5022139379313217E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-1.773679818071161E-2</v>
+      </c>
+      <c r="T23">
+        <v>0.41295079474775598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -24667,43 +25182,62 @@
         <v>0.98241878279311634</v>
       </c>
       <c r="G24">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.88256305943068414</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0.10015505287418824</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1.5073511318574373E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>3.031427560860056E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>3.2909495146644652E-3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>7.013101191043225E-2</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H24">
+        <v>8.8768615169855791E-2</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I24">
+        <v>3.2119302233359681E-2</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>0.88256305943068414</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
-        <v>0.10015505287418824</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="6"/>
-        <v>1.5073511318574373E-2</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="7"/>
-        <v>3.031427560860056E-3</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="8"/>
-        <v>3.2909495146644652E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-6.9467988045360363E-2</v>
+      </c>
+      <c r="T24">
+        <v>7.013101191043225E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -24728,43 +25262,62 @@
         <v>0.98425173581153425</v>
       </c>
       <c r="G25">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.88695827345631262</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>9.06386365446743E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>8.3486987661733902E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>3.524753358679189E-3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>1.4579964962465608E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>6.0614595580918307E-2</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H25">
+        <v>8.2043802617454809E-2</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I25">
+        <v>3.2612628031178814E-2</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>0.88695827345631262</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
-        <v>9.06386365446743E-2</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="6"/>
-        <v>8.3486987661733902E-3</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="7"/>
-        <v>3.524753358679189E-3</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="8"/>
-        <v>1.4579964962465608E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-7.1300941063778267E-2</v>
+      </c>
+      <c r="T25">
+        <v>6.0614595580918307E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24789,43 +25342,62 @@
         <v>0.98567481312548111</v>
       </c>
       <c r="G26">
+        <f t="shared" si="12"/>
+        <v>0.94298041645292141</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.90776002521045296</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>2.1617998410681016E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>1.8741764790108917E-4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>-1.0772570916698365E-3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>3.4919182299697482E-5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>-8.4060425530749772E-3</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="9"/>
-        <v>0.94298041645292141</v>
-      </c>
-      <c r="H26">
+        <v>7.3882521499182507E-2</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I26">
+        <v>2.8010617580829789E-2</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>0.90776002521045296</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
-        <v>2.1617998410681016E-2</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="6"/>
-        <v>1.8741764790108917E-4</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="7"/>
-        <v>-1.0772570916698365E-3</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="8"/>
-        <v>3.4919182299697482E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-7.272401837772513E-2</v>
+      </c>
+      <c r="T26">
+        <v>-8.4060425530749772E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24850,43 +25422,62 @@
         <v>0.9857064229263669</v>
       </c>
       <c r="G27">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.91291180283614393</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>-1.0847091561849709E-5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>8.6095043166922736E-6</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>1.5489585227923541E-4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>3.309381413907353E-6</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>-3.0034888055317843E-2</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H27">
+        <v>7.3703713355598111E-2</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I27">
+        <v>2.9242770524778861E-2</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>0.91291180283614393</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>-1.0847091561849709E-5</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="6"/>
-        <v>8.6095043166922736E-6</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="7"/>
-        <v>1.5489585227923541E-4</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="8"/>
-        <v>3.309381413907353E-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-7.275562817861092E-2</v>
+      </c>
+      <c r="T27">
+        <v>-3.0034888055317843E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24911,43 +25502,62 @@
         <v>0.98570841141198495</v>
       </c>
       <c r="G28">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="15"/>
+        <v>0.98572178496800267</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>0.91290836820548837</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>-2.0134387254122643E-6</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>5.9414428917881068E-6</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>1.644572691080759E-4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>1.3208957958532608E-6</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>-3.0026054402481406E-2</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H28">
+        <v>7.3701045294173206E-2</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I28">
+        <v>2.9252331941607701E-2</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="12"/>
-        <v>0.98572178496800267</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>0.91290836820548837</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>-2.0134387254122643E-6</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="6"/>
-        <v>5.9414428917881068E-6</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="7"/>
-        <v>1.644572691080759E-4</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="8"/>
-        <v>1.3208957958532608E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-7.2757616664228975E-2</v>
+      </c>
+      <c r="T28">
+        <v>-3.0026054402481406E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24972,43 +25582,62 @@
         <v>0.98574865999021988</v>
       </c>
       <c r="G29">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>0.91294753777197024</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>4.5464787032845067E-4</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>-3.9052824777119355E-5</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>-3.636394599694226E-4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>-3.8927682439071631E-5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>-2.9569393093427543E-2</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H29">
+        <v>7.3656051026504299E-2</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I29">
+        <v>2.8724235212530203E-2</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>0.91294753777197024</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>4.5464787032845067E-4</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="6"/>
-        <v>-3.9052824777119355E-5</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="7"/>
-        <v>-3.636394599694226E-4</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="8"/>
-        <v>-3.8927682439071631E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-7.2797865242463899E-2</v>
+      </c>
+      <c r="T29">
+        <v>-2.9569393093427543E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -25033,43 +25662,62 @@
         <v>0.97736121630715311</v>
       </c>
       <c r="G30">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0.85279158840011782</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>0.14507969867306392</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>2.5705955473157016E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>6.1502655243703797E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>8.3485160006276926E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>0.11505565770930792</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H30">
+        <v>9.9401059324438434E-2</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I30">
+        <v>9.0590529916203422E-2</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>0.85279158840011782</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>0.14507969867306392</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="6"/>
-        <v>2.5705955473157016E-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="7"/>
-        <v>6.1502655243703797E-2</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="8"/>
-        <v>8.3485160006276926E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-6.4410421559397135E-2</v>
+      </c>
+      <c r="T30">
+        <v>0.11505565770930792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -25094,43 +25742,62 @@
         <v>0.97305255032505378</v>
       </c>
       <c r="G31">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0.84688058735809246</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0.15597168382348703</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>3.7613132803756555E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>5.8038830948683673E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>1.2657181982727028E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>0.12594764285973103</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H31">
+        <v>0.11130823665503797</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I31">
+        <v>8.7126705621183298E-2</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>0.84688058735809246</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>0.15597168382348703</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="6"/>
-        <v>3.7613132803756555E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="7"/>
-        <v>5.8038830948683673E-2</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="8"/>
-        <v>1.2657181982727028E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+        <v>-6.01017555772978E-2</v>
+      </c>
+      <c r="T31">
+        <v>0.12594764285973103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -25155,43 +25822,62 @@
         <v>0.98529539035571434</v>
       </c>
       <c r="G32">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0.89392726474996553</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>7.0033165578607504E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>3.6035543739880715E-3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>2.0430580864994052E-3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>4.1434195206646596E-4</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>4.000912461485151E-2</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H32">
+        <v>7.729865822526949E-2</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I32">
+        <v>3.113093275899903E-2</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>0.89392726474996553</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>7.0033165578607504E-2</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="6"/>
-        <v>3.6035543739880715E-3</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="7"/>
-        <v>2.0430580864994052E-3</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="8"/>
-        <v>4.1434195206646596E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2344595607958362E-2</v>
+      </c>
+      <c r="T32">
+        <v>4.000912461485151E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -25216,43 +25902,62 @@
         <v>0.98570973230778081</v>
       </c>
       <c r="G33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94298568280307382</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.83929835470191116</v>
       </c>
       <c r="I33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.91819847726370596</v>
       </c>
       <c r="J33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.98574865999021988</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.91295079474775598</v>
       </c>
       <c r="L33">
-        <f>U$2-C33</f>
+        <f>X$2-C33</f>
         <v>0</v>
       </c>
       <c r="M33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-3.0024040963755994E-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>7.3695103851281418E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>2.9087874672499625E-2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="11"/>
+        <v>-7.2758937560024828E-2</v>
+      </c>
+      <c r="T33">
+        <v>-3.0024040963755994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -25277,43 +25982,62 @@
         <v>0.98345186198134726</v>
       </c>
       <c r="G34">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.88435068870708378</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>9.6176784315641917E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>1.1850980717202475E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>4.1147888034105407E-3</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>2.257870326433542E-3</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>6.6152743351885923E-2</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H34">
+        <v>8.5546084568483893E-2</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I34">
+        <v>3.3202663475910166E-2</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="4"/>
-        <v>0.88435068870708378</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>9.6176784315641917E-2</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="6"/>
-        <v>1.1850980717202475E-2</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="7"/>
-        <v>4.1147888034105407E-3</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="8"/>
-        <v>2.257870326433542E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.0501067233591286E-2</v>
+      </c>
+      <c r="T34">
+        <v>6.6152743351885923E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -25338,43 +26062,62 @@
         <v>0.97494112405820954</v>
       </c>
       <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.86532392029973448</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>0.15575226645769502</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>2.3204525922676855E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>7.8209716214250324E-4</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>1.0768608249571265E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>0.12572822549393903</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H35">
+        <v>9.6899629773958273E-2</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I35">
+        <v>2.9869971834642128E-2</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>0.86532392029973448</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>0.15575226645769502</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="6"/>
-        <v>2.3204525922676855E-2</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="7"/>
-        <v>7.8209716214250324E-4</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="8"/>
-        <v>1.0768608249571265E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-6.1990329310453562E-2</v>
+      </c>
+      <c r="T35">
+        <v>0.12572822549393903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -25399,43 +26142,62 @@
         <v>0.93100864817983653</v>
       </c>
       <c r="G36">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>0.83438473795148682</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>0.21557131225217163</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>-1.0073087001602476E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>5.4701084127944277E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>0.18554727128841564</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H36">
+        <v>0.12776002165784428</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I36">
+        <v>1.9014787670897149E-2</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="4"/>
-        <v>0.83438473795148682</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>0.21557131225217163</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="6"/>
-        <v>5.4064917806562862E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="7"/>
-        <v>-1.0073087001602476E-2</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="8"/>
-        <v>5.4701084127944277E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.8057853432080551E-2</v>
+      </c>
+      <c r="T36">
+        <v>0.18554727128841564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -25460,43 +26222,62 @@
         <v>0.98570740671737767</v>
       </c>
       <c r="G37">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.91289108634936866</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>4.5415151771666107E-4</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>-1.2479231714879191E-5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>-2.0516428285588528E-4</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>2.3255904031405095E-6</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>-2.9569889446039332E-2</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H37">
+        <v>7.3682624619566539E-2</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I37">
+        <v>2.888271038964374E-2</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="4"/>
-        <v>0.91289108634936866</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>4.5415151771666107E-4</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="6"/>
-        <v>-1.2479231714879191E-5</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="7"/>
-        <v>-2.0516428285588528E-4</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="8"/>
-        <v>2.3255904031405095E-6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2756611969621687E-2</v>
+      </c>
+      <c r="T37">
+        <v>-2.9569889446039332E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -25521,43 +26302,62 @@
         <v>0.93279117697223557</v>
       </c>
       <c r="G38">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.77339710344940404</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>0.44297483571151197</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>5.4064917806562862E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>8.2564563397873325E-3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>5.2918555335545236E-2</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>0.41295079474775598</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H38">
+        <v>0.12776002165784428</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I38">
+        <v>3.7344331012286958E-2</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
-        <v>0.77339710344940404</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>0.44297483571151197</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="6"/>
-        <v>5.4064917806562862E-2</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="7"/>
-        <v>8.2564563397873325E-3</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="8"/>
-        <v>5.2918555335545236E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.9840382224479591E-2</v>
+      </c>
+      <c r="T38">
+        <v>0.41295079474775598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -25582,43 +26382,62 @@
         <v>0.98571271229808455</v>
       </c>
       <c r="G39">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.91294407804918076</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>2.2361033673734543E-4</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>-2.2916163074371276E-5</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>-1.7084738905848162E-4</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>-2.9799903037419639E-6</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>-2.9800430627018648E-2</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H39">
+        <v>7.3672187688207047E-2</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I39">
+        <v>2.8917027283441143E-2</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="4"/>
-        <v>0.91294407804918076</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
-        <v>2.2361033673734543E-4</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="6"/>
-        <v>-2.2916163074371276E-5</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="7"/>
-        <v>-1.7084738905848162E-4</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="8"/>
-        <v>-2.9799903037419639E-6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.276191755032857E-2</v>
+      </c>
+      <c r="T39">
+        <v>-2.9800430627018648E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -25643,43 +26462,62 @@
         <v>0.98570077474810369</v>
       </c>
       <c r="G40">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.91285610490587232</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>6.3197536508430296E-4</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>-1.3325599556135437E-5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>-2.4884795767088352E-4</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>8.9575596771140908E-6</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>-2.9392065598671691E-2</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H40">
+        <v>7.3681778251725283E-2</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I40">
+        <v>2.8839026714828742E-2</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="4"/>
-        <v>0.91285610490587232</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>6.3197536508430296E-4</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="6"/>
-        <v>-1.3325599556135437E-5</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="7"/>
-        <v>-2.4884795767088352E-4</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="8"/>
-        <v>8.9575596771140908E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2749980000347714E-2</v>
+      </c>
+      <c r="T40">
+        <v>-2.9392065598671691E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -25704,43 +26542,62 @@
         <v>0.98505745282492829</v>
       </c>
       <c r="G41">
+        <f t="shared" si="12"/>
+        <v>0.94298568280307382</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.88927657150000283</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>8.3864960644458031E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>5.8241606145812419E-3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>4.3554922491204628E-3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>6.5227948285251358E-4</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>5.3840919680702037E-2</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="9"/>
-        <v>0.94298568280307382</v>
-      </c>
-      <c r="H41">
+        <v>7.951926446586266E-2</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I41">
+        <v>3.3443366921620088E-2</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="4"/>
-        <v>0.88927657150000283</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="5"/>
-        <v>8.3864960644458031E-2</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="6"/>
-        <v>5.8241606145812419E-3</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="7"/>
-        <v>4.3554922491204628E-3</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="8"/>
-        <v>6.5227948285251358E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2106658077172314E-2</v>
+      </c>
+      <c r="T41">
+        <v>5.3840919680702037E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -25765,43 +26622,62 @@
         <v>0.98571072741152066</v>
       </c>
       <c r="G42">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0.91293283410893822</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>-3.4421986913280023E-5</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>-1.6618706411009043E-10</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>1.0725981211134883E-4</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>-9.9510373985367551E-7</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>-3.0058462950669274E-2</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H42">
+        <v>7.3695103685094354E-2</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I42">
+        <v>2.9195134484610974E-2</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="4"/>
-        <v>0.91293283410893822</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="5"/>
-        <v>-3.4421986913280023E-5</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="6"/>
-        <v>-1.6618706411009043E-10</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="7"/>
-        <v>1.0725981211134883E-4</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="8"/>
-        <v>-9.9510373985367551E-7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2759932663764681E-2</v>
+      </c>
+      <c r="T42">
+        <v>-3.0058462950669274E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -25826,43 +26702,62 @@
         <v>0.98481406047001696</v>
       </c>
       <c r="G43">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0.88614607389487687</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>9.2435893316641815E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>7.8471085396398799E-3</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>6.040209717470657E-3</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>8.9567183776384507E-4</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>6.2411852352885822E-2</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H43">
+        <v>8.1542212390921298E-2</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I43">
+        <v>3.5128084389970282E-2</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="4"/>
-        <v>0.88614607389487687</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="5"/>
-        <v>9.2435893316641815E-2</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="6"/>
-        <v>7.8471085396398799E-3</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="7"/>
-        <v>6.040209717470657E-3</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="8"/>
-        <v>8.9567183776384507E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.1863265722260983E-2</v>
+      </c>
+      <c r="T43">
+        <v>6.2411852352885822E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -25887,43 +26782,62 @@
         <v>0.98438969614888783</v>
       </c>
       <c r="G44">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>0.88571883487263747</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>9.3651368770703236E-2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>8.8931211424160272E-3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>5.0633134284621129E-3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>1.3200361588929788E-3</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>6.3627327806947243E-2</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H44">
+        <v>8.2588224993697446E-2</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I44">
+        <v>3.4151188100961738E-2</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="4"/>
-        <v>0.88571883487263747</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="5"/>
-        <v>9.3651368770703236E-2</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="6"/>
-        <v>8.8931211424160272E-3</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="7"/>
-        <v>5.0633134284621129E-3</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="8"/>
-        <v>1.3200361588929788E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.1438901401131849E-2</v>
+      </c>
+      <c r="T44">
+        <v>6.3627327806947243E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -25948,43 +26862,62 @@
         <v>0.98571834157222571</v>
       </c>
       <c r="G45">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>0.91294020741075288</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>2.2531101548106669E-4</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>-1.3819494448008562E-5</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>-1.6053290857576119E-4</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>-8.6092644449031752E-6</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>-2.9798729948274927E-2</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H45">
+        <v>7.368128435683341E-2</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I45">
+        <v>2.8927341763923864E-2</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="4"/>
-        <v>0.91294020741075288</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="5"/>
-        <v>2.2531101548106669E-4</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="6"/>
-        <v>-1.3819494448008562E-5</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="7"/>
-        <v>-1.6053290857576119E-4</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="8"/>
-        <v>-8.6092644449031752E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2767546824469731E-2</v>
+      </c>
+      <c r="T45">
+        <v>-2.9798729948274927E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -26009,43 +26942,62 @@
         <v>0.98571139083053827</v>
       </c>
       <c r="G46">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>0.91293408264515696</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>-3.2040473140648729E-5</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>9.7042321955953526E-7</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>9.957698307438978E-5</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>-1.6585227574639205E-6</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>-3.0056081436896642E-2</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H46">
+        <v>7.3696074274500978E-2</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I46">
+        <v>2.9187451655574015E-2</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="4"/>
-        <v>0.91293408264515696</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="5"/>
-        <v>-3.2040473140648729E-5</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="6"/>
-        <v>9.7042321955953526E-7</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="7"/>
-        <v>9.957698307438978E-5</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="8"/>
-        <v>-1.6585227574639205E-6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2760596082782292E-2</v>
+      </c>
+      <c r="T46">
+        <v>-3.0056081436896642E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -26070,43 +27022,62 @@
         <v>0.97409772814654705</v>
       </c>
       <c r="G47">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>0.8625089735476561</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>0.15658827893099614</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>2.7630827747796904E-2</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>5.9361739603722707E-3</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>1.1612004161233758E-2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>0.12656423796724015</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H47">
+        <v>0.10132593159907832</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I47">
+        <v>3.5024048632871896E-2</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="4"/>
-        <v>0.8625089735476561</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="5"/>
-        <v>0.15658827893099614</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="6"/>
-        <v>2.7630827747796904E-2</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="7"/>
-        <v>5.9361739603722707E-3</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="8"/>
-        <v>1.1612004161233758E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-6.114693339879107E-2</v>
+      </c>
+      <c r="T47">
+        <v>0.12656423796724015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -26131,43 +27102,62 @@
         <v>0.98571271080426226</v>
       </c>
       <c r="G48">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>0.9129463509652509</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>1.2754260110536819E-4</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>-5.3320512631849226E-6</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>-1.0145692334107004E-4</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>-2.9784964814538739E-6</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>-2.9896498362650625E-2</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H48">
+        <v>7.3689771800018233E-2</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I48">
+        <v>2.8986417749158555E-2</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="4"/>
-        <v>0.9129463509652509</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="5"/>
-        <v>1.2754260110536819E-4</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="6"/>
-        <v>-5.3320512631849226E-6</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="7"/>
-        <v>-1.0145692334107004E-4</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="8"/>
-        <v>-2.9784964814538739E-6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2761916056506282E-2</v>
+      </c>
+      <c r="T48">
+        <v>-2.9896498362650625E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -26192,43 +27182,62 @@
         <v>0.98571171797761004</v>
       </c>
       <c r="G49">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>0.91294326797879743</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>1.3842795348995018E-4</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>-3.755227785173787E-6</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>-1.0257998004137292E-4</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>-1.9856698292297636E-6</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>-2.9885613010266043E-2</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H49">
+        <v>7.3691348623496244E-2</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I49">
+        <v>2.8985294692458252E-2</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="4"/>
-        <v>0.91294326797879743</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="5"/>
-        <v>1.3842795348995018E-4</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="6"/>
-        <v>-3.755227785173787E-6</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="7"/>
-        <v>-1.0257998004137292E-4</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="8"/>
-        <v>-1.9856698292297636E-6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2760923229854058E-2</v>
+      </c>
+      <c r="T49">
+        <v>-2.9885613010266043E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -26253,43 +27262,62 @@
         <v>0.98569517366159509</v>
       </c>
       <c r="G50">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>0.90799731915085413</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>2.0754209321515282E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>2.0887522632317967E-4</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>-1.1637408064166799E-3</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>1.4558646185713897E-5</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>-9.2698316422407112E-3</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H50">
+        <v>7.3903979077604598E-2</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I50">
+        <v>2.7924133866082945E-2</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="4"/>
-        <v>0.90799731915085413</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="5"/>
-        <v>2.0754209321515282E-2</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="6"/>
-        <v>2.0887522632317967E-4</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="7"/>
-        <v>-1.1637408064166799E-3</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="8"/>
-        <v>1.4558646185713897E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.2744378913839114E-2</v>
+      </c>
+      <c r="T50">
+        <v>-9.2698316422407112E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -26314,66 +27342,835 @@
         <v>0.97557890280031789</v>
       </c>
       <c r="G51">
+        <f t="shared" si="12"/>
+        <v>0.94300925769842525</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>0.83929835470191116</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="14"/>
+        <v>0.91819847726370596</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="15"/>
+        <v>0.98574865999021988</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0.84634870379173766</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>0.14854815496628615</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>2.9044032988870261E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>7.8685346361453745E-2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>1.0130829507462913E-2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>0.11852411400253016</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="9"/>
-        <v>0.94300925769842525</v>
-      </c>
-      <c r="H51">
+        <v>0.10273913684015168</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="10"/>
-        <v>0.83929835470191116</v>
-      </c>
-      <c r="I51">
+        <v>0.10777322103395337</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="11"/>
-        <v>0.91819847726370596</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="12"/>
-        <v>0.98574865999021988</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="4"/>
-        <v>0.84634870379173766</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="5"/>
-        <v>0.14854815496628615</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="6"/>
-        <v>2.9044032988870261E-2</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="7"/>
-        <v>7.8685346361453745E-2</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="8"/>
-        <v>1.0130829507462913E-2</v>
+        <v>-6.2628108052561915E-2</v>
+      </c>
+      <c r="T51">
+        <v>0.11852411400253016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T52">
+        <v>7.5593833369848262E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T53">
+        <v>7.3679587965031934E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T54">
+        <v>9.4785824267930252E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T55">
+        <v>0.12776002165784428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <v>7.3652440045844814E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T57">
+        <v>0.12776002165784428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T58">
+        <v>7.3699228087644286E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T59">
+        <v>9.3919515613895777E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T60">
+        <v>8.2821382484558503E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T61">
+        <v>7.5546175531192028E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T62">
+        <v>7.3661331978579492E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T63">
+        <v>8.4432320988221177E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T64">
+        <v>7.4215343339561812E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T65">
+        <v>9.3254706003124133E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T66">
+        <v>7.3706448639754285E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <v>7.3667515549487694E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T68">
+        <v>0.12776002165784428</v>
+      </c>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T69">
+        <v>7.3702136532120099E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T70">
+        <v>8.3546112883180479E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T71">
+        <v>7.3657650866912561E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T72">
+        <v>0.10018666622317784</v>
+      </c>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T73">
+        <v>0.12776002165784428</v>
+      </c>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T74">
+        <v>8.8768615169855791E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <v>8.2043802617454809E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T76">
+        <v>7.3882521499182507E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T77">
+        <v>7.3703713355598111E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T78">
+        <v>7.3701045294173206E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T79">
+        <v>7.3656051026504299E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T80">
+        <v>9.9401059324438434E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T81">
+        <v>0.11130823665503797</v>
+      </c>
+    </row>
+    <row r="82" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T82">
+        <v>7.729865822526949E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T83">
+        <v>7.3695103851281418E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T84">
+        <v>8.5546084568483893E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T85">
+        <v>9.6899629773958273E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T86">
+        <v>0.12776002165784428</v>
+      </c>
+    </row>
+    <row r="87" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T87">
+        <v>7.3682624619566539E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T88">
+        <v>0.12776002165784428</v>
+      </c>
+    </row>
+    <row r="89" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T89">
+        <v>7.3672187688207047E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T90">
+        <v>7.3681778251725283E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T91">
+        <v>7.951926446586266E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T92">
+        <v>7.3695103685094354E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T93">
+        <v>8.1542212390921298E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T94">
+        <v>8.2588224993697446E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T95">
+        <v>7.368128435683341E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <v>7.3696074274500978E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T97">
+        <v>0.10132593159907832</v>
+      </c>
+    </row>
+    <row r="98" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T98">
+        <v>7.3689771800018233E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T99">
+        <v>7.3691348623496244E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T100">
+        <v>7.3903979077604598E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T101">
+        <v>0.10273913684015168</v>
+      </c>
+    </row>
+    <row r="102" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T102">
+        <v>2.6861600597350987E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T103">
+        <v>2.8913281567946592E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T104">
+        <v>7.2395657173424333E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T105">
+        <v>2.2849911524506772E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T106">
+        <v>2.8351998962271807E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T107">
+        <v>3.7344331012286958E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T108">
+        <v>2.9059932189086979E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T109">
+        <v>6.0697308564542474E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T110">
+        <v>3.2813354980149922E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T111">
+        <v>2.9524397627888055E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T112">
+        <v>2.8010766597936554E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T113">
+        <v>3.4449705516379714E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T114">
+        <v>2.7587054619352736E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T115">
+        <v>3.5361520153591064E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T116">
+        <v>2.7978590892229094E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T117">
+        <v>2.800495426933125E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T118">
+        <v>1.9130556319463254E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T119">
+        <v>2.9242391016133573E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T120">
+        <v>3.6188582576078376E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T121">
+        <v>2.8602177700587483E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T122">
+        <v>5.096855231686237E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T123">
+        <v>-5.2476825159499807E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T124">
+        <v>3.2119302233359681E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T125">
+        <v>3.2612628031178814E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T126">
+        <v>2.8010617580829789E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T127">
+        <v>2.9242770524778861E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T128">
+        <v>2.9252331941607701E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T129">
+        <v>2.8724235212530203E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T130">
+        <v>9.0590529916203422E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T131">
+        <v>8.7126705621183298E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T132">
+        <v>3.113093275899903E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T133">
+        <v>2.9087874672499625E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T134">
+        <v>3.3202663475910166E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T135">
+        <v>2.9869971834642128E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T136">
+        <v>1.9014787670897149E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T137">
+        <v>2.888271038964374E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T138">
+        <v>3.7344331012286958E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T139">
+        <v>2.8917027283441143E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T140">
+        <v>2.8839026714828742E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T141">
+        <v>3.3443366921620088E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T142">
+        <v>2.9195134484610974E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T143">
+        <v>3.5128084389970282E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T144">
+        <v>3.4151188100961738E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T145">
+        <v>2.8927341763923864E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T146">
+        <v>2.9187451655574015E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T147">
+        <v>3.5024048632871896E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T148">
+        <v>2.8986417749158555E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T149">
+        <v>2.8985294692458252E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T150">
+        <v>2.7924133866082945E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T151">
+        <v>0.10777322103395337</v>
+      </c>
+    </row>
+    <row r="152" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T152">
+        <v>-7.2095309398860552E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T153">
+        <v>-7.2765225282589219E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T154">
+        <v>-6.7704446353369696E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T155">
+        <v>-1.8057853432080551E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T156">
+        <v>-7.277099022024669E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T157">
+        <v>-1.9840382224479591E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T158">
+        <v>-7.2758273602305801E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T159">
+        <v>-6.8471864272827809E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T160">
+        <v>-7.1140929664394337E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T161">
+        <v>-7.2562565137474722E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T162">
+        <v>-7.2715123856024855E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T163">
+        <v>-7.1015049389977158E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T164">
+        <v>-7.2766211474621811E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T165">
+        <v>-6.7689720990672719E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T166">
+        <v>-7.2709482419790916E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T167">
+        <v>-7.2718768448506443E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T168">
+        <v>-1.8057853432080551E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T169">
+        <v>-7.275562817861092E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T170">
+        <v>-7.1503255131259658E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T171">
+        <v>-7.2745663108537473E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T172">
+        <v>-6.3183823786953197E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T173">
+        <v>-1.773679818071161E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T174">
+        <v>-6.9467988045360363E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T175">
+        <v>-7.1300941063778267E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T176">
+        <v>-7.272401837772513E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T177">
+        <v>-7.275562817861092E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T178">
+        <v>-7.2757616664228975E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T179">
+        <v>-7.2797865242463899E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T180">
+        <v>-6.4410421559397135E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T181">
+        <v>-6.01017555772978E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T182">
+        <v>-7.2344595607958362E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T183">
+        <v>-7.2758937560024828E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T184">
+        <v>-7.0501067233591286E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T185">
+        <v>-6.1990329310453562E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T186">
+        <v>-1.8057853432080551E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T187">
+        <v>-7.2756611969621687E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T188">
+        <v>-1.9840382224479591E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T189">
+        <v>-7.276191755032857E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T190">
+        <v>-7.2749980000347714E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T191">
+        <v>-7.2106658077172314E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T192">
+        <v>-7.2759932663764681E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T193">
+        <v>-7.1863265722260983E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T194">
+        <v>-7.1438901401131849E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T195">
+        <v>-7.2767546824469731E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T196">
+        <v>-7.2760596082782292E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T197">
+        <v>-6.114693339879107E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T198">
+        <v>-7.2761916056506282E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T199">
+        <v>-7.2760923229854058E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T200">
+        <v>-7.2744378913839114E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T201">
+        <v>-6.2628108052561915E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$G$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>$H$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>$I$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>$J$51</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N1048576 K1 K2:O51">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>$T$2</formula>
+  <conditionalFormatting sqref="K1 K52:N1048576 K2:S51">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW1/results/v1/LogisticRegression/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/LogisticRegression/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\LogisticRegression\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE65703-69FC-4223-BAE8-F3F869D99362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7E872-A5F2-40CE-A98E-0FB8AF7F0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="20" r:id="rId1"/>
@@ -447,77 +447,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -584,6 +514,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFED7D31"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -1495,7 +1428,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3452,7 +3385,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5407,7 +5340,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9019,7 +8952,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9096,7 +9029,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0792915B-989A-795D-1497-2F9AF127934B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C61F6E-D49A-E539-1F9D-6543236CA54F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9400,7 +9333,7 @@
     <tableColumn id="5" xr3:uid="{FC962F0D-B701-4DA9-9CBC-42A59F0681E1}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{20662614-1ECD-4BAA-844D-CE89770034D0}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D5AF6A91-0BAC-4491-A7C1-51D25FD7587D}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{36AA8119-C38B-43BF-A119-3A3EF5798CDF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{36AA8119-C38B-43BF-A119-3A3EF5798CDF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{B14E2BF4-F0C7-4D50-9932-8818488E2EAE}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{00B52752-AA94-4559-8E9E-86927C8B29BA}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{DE433DDD-EDED-40D9-BA13-C5F9352093DD}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -9430,7 +9363,7 @@
     <tableColumn id="5" xr3:uid="{58A05135-A419-4FFF-B881-9C50A745B1E5}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{9B9A8308-EEFD-4277-9EC6-DFD8C7C9195E}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{8B6CBABE-4388-4229-918B-9E465EFFBEFC}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{B98111C5-1E86-4C28-A456-7CED6FCCF7FD}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{B98111C5-1E86-4C28-A456-7CED6FCCF7FD}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{D19B5DBB-5BB3-442B-BA9E-7A65989919C8}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{F5D49FDA-18F0-46DB-B380-80FF4AC8DF8E}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{9694D6D4-F8AC-4C59-9018-446E062D5509}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -9460,7 +9393,7 @@
     <tableColumn id="5" xr3:uid="{CD65B040-6426-4A17-A554-DE661BB8F3BE}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{275E0E6D-DA8C-4C37-882A-D3A922BF1DA2}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{3513815E-F80B-454C-8E90-779142C029FA}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{CDFDAAD8-4592-44A4-9E40-0F03B82F90D1}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{CDFDAAD8-4592-44A4-9E40-0F03B82F90D1}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{23244273-3C1F-4E95-AC16-C57F37DE89C4}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{5DB4DBD8-3877-4EEF-8470-08AFFB940B05}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{714F315F-C484-4BD2-99E6-770B5B42ADEC}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -9490,7 +9423,7 @@
     <tableColumn id="5" xr3:uid="{55E22F19-30C9-4930-A567-2F4E3C09E046}" uniqueName="5" name="std_score_time" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{7D760460-8EE8-47E2-A66F-8F95C99EC4F8}" uniqueName="6" name="param_model__C" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{AECFD3E0-A9B3-4549-A682-1AE17EF9C61D}" uniqueName="7" name="param_model__l1_ratio" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{DE1FDE43-9EB4-43E9-B0D0-949F1812E6CF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{DE1FDE43-9EB4-43E9-B0D0-949F1812E6CF}" uniqueName="8" name="params" queryTableFieldId="8" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{BB852772-AD87-4BB3-A0BE-1EE37E200925}" uniqueName="9" name="split0_test_score" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{CAB2162F-A55F-4EB6-980B-E305E30BD505}" uniqueName="10" name="split1_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{38361E23-9F6D-4A1D-BC87-F466BEBC5AD5}" uniqueName="11" name="split2_test_score" queryTableFieldId="11"/>
@@ -23188,7 +23121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
   <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T201"/>
     </sheetView>
   </sheetViews>
@@ -23463,7 +23396,7 @@
         <v>2.8913281567946592E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:T51" si="11">$W$2-F3</f>
+        <f t="shared" ref="S3:S51" si="11">$W$2-F3</f>
         <v>-7.2765225282589219E-2</v>
       </c>
       <c r="T3">
@@ -28149,27 +28082,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$G$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$H$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$I$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$J$51</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1 K52:N1048576 K2:S51">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="K1 K2:S51 K52:N1048576">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
